--- a/tabelas_resultados/regression_results_Post.xlsx
+++ b/tabelas_resultados/regression_results_Post.xlsx
@@ -494,22 +494,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[-2.04891123]]</t>
+          <t>[[-0.09430767]]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.00720951]</t>
+          <t>[0.00076657]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1912699380378576</v>
+        <v>0.0369587149357096</v>
       </c>
       <c r="E3" t="n">
-        <v>0.28803919697907</v>
+        <v>0.1498112075591919</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.175232374030735</v>
+        <v>0.1932280384196836</v>
       </c>
     </row>
     <row r="4">
@@ -546,22 +546,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[[-1.9551859]]</t>
+          <t>[[-0.08189022]]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.098187]</t>
+          <t>[-0.01349331]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1974449290773782</v>
+        <v>0.03161302866154028</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2842022859791646</v>
+        <v>0.1379218863696205</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.245682158178833</v>
+        <v>0.1601106131682482</v>
       </c>
     </row>
     <row r="6">
@@ -598,22 +598,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[-1.57414127]]</t>
+          <t>[[-0.10621529]]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.0505687]</t>
+          <t>[0.01577415]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2141843337207282</v>
+        <v>0.03581116387909909</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3024665269060782</v>
+        <v>0.1508427978739718</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.980937521154827</v>
+        <v>0.1671978676357944</v>
       </c>
     </row>
     <row r="8">
@@ -650,22 +650,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[-3.0807048]]</t>
+          <t>[[-0.09660617]]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.01434275]</t>
+          <t>[-0.0103561]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1690811852741267</v>
+        <v>0.05032111207311334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2956414246779145</v>
+        <v>0.1665559008856181</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.360044687177474</v>
+        <v>0.2976150894112147</v>
       </c>
     </row>
     <row r="10">
@@ -702,22 +702,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[-1.35595517]]</t>
+          <t>[[-0.113704]]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.01189073]</t>
+          <t>[0.00019664]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2369970149272159</v>
+        <v>0.03653961410228518</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3661082820209551</v>
+        <v>0.1486754597625454</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.486029498390192</v>
+        <v>0.1541775288330397</v>
       </c>
     </row>
     <row r="12">
@@ -754,22 +754,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[-1.37745767]]</t>
+          <t>[[-0.11444081]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[-0.06424398]</t>
+          <t>[-0.01453501]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.1976200258815359</v>
+        <v>0.03115230124179673</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3384200716382682</v>
+        <v>0.1371374756278083</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.343673436760141</v>
+        <v>0.1576373705186694</v>
       </c>
     </row>
     <row r="14">
@@ -806,22 +806,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[-1.05847755]]</t>
+          <t>[[-0.11907837]]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[0.03145947]</t>
+          <t>[0.01240768]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2850322968152308</v>
+        <v>0.03592597779882285</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3869010053215098</v>
+        <v>0.1509296347409389</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.93387721863398</v>
+        <v>0.1260417791255127</v>
       </c>
     </row>
     <row r="16">
@@ -858,22 +858,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[[-1.95930308]]</t>
+          <t>[[-0.11006728]]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[-0.03765517]</t>
+          <t>[-0.0040655]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.2288588529003986</v>
+        <v>0.04935459160381948</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4009449487784255</v>
+        <v>0.1644296841027146</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.637032654175332</v>
+        <v>0.215655155910875</v>
       </c>
     </row>
   </sheetData>
